--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_05_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="693">
   <si>
     <t>zh_CN</t>
   </si>
@@ -2144,22 +2144,26 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">[name="Tachanka"]무슨 일이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ash"]손님이 왔다. 전투 준비해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="슈바르츠"]……아뇨.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="슈바르츠"]사격하지 마십시오……
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="Tachanka"]왜?
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ash"]손님이 왔다. 전투 준비해.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="슈바르츠"]……아뇨.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="슈바르츠"]사격하지 마십시오……
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="슈바르츠"]……용병이 아닙니다.
 </t>
   </si>
@@ -2260,7 +2264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="레인저"]저는 로도스 아일랜드의 현장 오퍼레이터, 코드네임 레인저라고 합니다.
+    <t xml:space="preserve">[name="레인저"]저는 로도스 아일랜드의 외근 오퍼레이터, 코드네임 레인저라고 합니다.
 </t>
   </si>
   <si>
@@ -2492,7 +2496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="미아로우"]이건…… 오리지늄 주괴잖아요. 하지만 전……
+    <t xml:space="preserve">[name="미아로우"]이건…… 오리지늄각뿔이잖아요. 하지만 전……
 </t>
   </si>
   <si>
@@ -2612,7 +2616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="레인저"]왜?
+    <t xml:space="preserve">[name="레인저"]무슨 일인가?
 </t>
   </si>
   <si>
@@ -3404,7 +3408,7 @@
         <v>364</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3418,7 +3422,7 @@
         <v>365</v>
       </c>
       <c r="D20" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3432,7 +3436,7 @@
         <v>366</v>
       </c>
       <c r="D21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3446,7 +3450,7 @@
         <v>367</v>
       </c>
       <c r="D22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3460,7 +3464,7 @@
         <v>368</v>
       </c>
       <c r="D23" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3474,7 +3478,7 @@
         <v>369</v>
       </c>
       <c r="D24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3488,7 +3492,7 @@
         <v>370</v>
       </c>
       <c r="D25" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3502,7 +3506,7 @@
         <v>371</v>
       </c>
       <c r="D26" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3516,7 +3520,7 @@
         <v>372</v>
       </c>
       <c r="D27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3530,7 +3534,7 @@
         <v>373</v>
       </c>
       <c r="D28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3544,7 +3548,7 @@
         <v>374</v>
       </c>
       <c r="D29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3558,7 +3562,7 @@
         <v>375</v>
       </c>
       <c r="D30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3572,7 +3576,7 @@
         <v>376</v>
       </c>
       <c r="D31" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3586,7 +3590,7 @@
         <v>377</v>
       </c>
       <c r="D32" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3600,7 +3604,7 @@
         <v>378</v>
       </c>
       <c r="D33" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3614,7 +3618,7 @@
         <v>379</v>
       </c>
       <c r="D34" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3628,7 +3632,7 @@
         <v>380</v>
       </c>
       <c r="D35" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3642,7 +3646,7 @@
         <v>381</v>
       </c>
       <c r="D36" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3656,7 +3660,7 @@
         <v>382</v>
       </c>
       <c r="D37" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3670,7 +3674,7 @@
         <v>383</v>
       </c>
       <c r="D38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3684,7 +3688,7 @@
         <v>384</v>
       </c>
       <c r="D39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3698,7 +3702,7 @@
         <v>385</v>
       </c>
       <c r="D40" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3712,7 +3716,7 @@
         <v>386</v>
       </c>
       <c r="D41" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3726,7 +3730,7 @@
         <v>387</v>
       </c>
       <c r="D42" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3740,7 +3744,7 @@
         <v>388</v>
       </c>
       <c r="D43" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3754,7 +3758,7 @@
         <v>389</v>
       </c>
       <c r="D44" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3768,7 +3772,7 @@
         <v>390</v>
       </c>
       <c r="D45" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3782,7 +3786,7 @@
         <v>391</v>
       </c>
       <c r="D46" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3796,7 +3800,7 @@
         <v>392</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3810,7 +3814,7 @@
         <v>393</v>
       </c>
       <c r="D48" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3824,7 +3828,7 @@
         <v>394</v>
       </c>
       <c r="D49" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3838,7 +3842,7 @@
         <v>395</v>
       </c>
       <c r="D50" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3852,7 +3856,7 @@
         <v>396</v>
       </c>
       <c r="D51" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3866,7 +3870,7 @@
         <v>397</v>
       </c>
       <c r="D52" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3880,7 +3884,7 @@
         <v>398</v>
       </c>
       <c r="D53" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3894,7 +3898,7 @@
         <v>399</v>
       </c>
       <c r="D54" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3908,7 +3912,7 @@
         <v>400</v>
       </c>
       <c r="D55" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3922,7 +3926,7 @@
         <v>401</v>
       </c>
       <c r="D56" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3936,7 +3940,7 @@
         <v>402</v>
       </c>
       <c r="D57" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3950,7 +3954,7 @@
         <v>403</v>
       </c>
       <c r="D58" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3964,7 +3968,7 @@
         <v>404</v>
       </c>
       <c r="D59" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3978,7 +3982,7 @@
         <v>405</v>
       </c>
       <c r="D60" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3992,7 +3996,7 @@
         <v>406</v>
       </c>
       <c r="D61" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4006,7 +4010,7 @@
         <v>407</v>
       </c>
       <c r="D62" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4020,7 +4024,7 @@
         <v>408</v>
       </c>
       <c r="D63" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4034,7 +4038,7 @@
         <v>409</v>
       </c>
       <c r="D64" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4048,7 +4052,7 @@
         <v>410</v>
       </c>
       <c r="D65" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4062,7 +4066,7 @@
         <v>411</v>
       </c>
       <c r="D66" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4076,7 +4080,7 @@
         <v>412</v>
       </c>
       <c r="D67" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4090,7 +4094,7 @@
         <v>413</v>
       </c>
       <c r="D68" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4104,7 +4108,7 @@
         <v>414</v>
       </c>
       <c r="D69" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4118,7 +4122,7 @@
         <v>415</v>
       </c>
       <c r="D70" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4132,7 +4136,7 @@
         <v>416</v>
       </c>
       <c r="D71" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4146,7 +4150,7 @@
         <v>417</v>
       </c>
       <c r="D72" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4160,7 +4164,7 @@
         <v>418</v>
       </c>
       <c r="D73" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4174,7 +4178,7 @@
         <v>419</v>
       </c>
       <c r="D74" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4188,7 +4192,7 @@
         <v>420</v>
       </c>
       <c r="D75" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4202,7 +4206,7 @@
         <v>421</v>
       </c>
       <c r="D76" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4216,7 +4220,7 @@
         <v>422</v>
       </c>
       <c r="D77" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4230,7 +4234,7 @@
         <v>423</v>
       </c>
       <c r="D78" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4244,7 +4248,7 @@
         <v>424</v>
       </c>
       <c r="D79" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4258,7 +4262,7 @@
         <v>425</v>
       </c>
       <c r="D80" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4272,7 +4276,7 @@
         <v>426</v>
       </c>
       <c r="D81" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4286,7 +4290,7 @@
         <v>427</v>
       </c>
       <c r="D82" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4300,7 +4304,7 @@
         <v>428</v>
       </c>
       <c r="D83" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4314,7 +4318,7 @@
         <v>429</v>
       </c>
       <c r="D84" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4328,7 +4332,7 @@
         <v>430</v>
       </c>
       <c r="D85" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4342,7 +4346,7 @@
         <v>431</v>
       </c>
       <c r="D86" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4356,7 +4360,7 @@
         <v>432</v>
       </c>
       <c r="D87" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4370,7 +4374,7 @@
         <v>433</v>
       </c>
       <c r="D88" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4384,7 +4388,7 @@
         <v>434</v>
       </c>
       <c r="D89" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4398,7 +4402,7 @@
         <v>435</v>
       </c>
       <c r="D90" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4412,7 +4416,7 @@
         <v>436</v>
       </c>
       <c r="D91" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4426,7 +4430,7 @@
         <v>437</v>
       </c>
       <c r="D92" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4440,7 +4444,7 @@
         <v>438</v>
       </c>
       <c r="D93" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4454,7 +4458,7 @@
         <v>439</v>
       </c>
       <c r="D94" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4468,7 +4472,7 @@
         <v>440</v>
       </c>
       <c r="D95" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4482,7 +4486,7 @@
         <v>441</v>
       </c>
       <c r="D96" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4496,7 +4500,7 @@
         <v>442</v>
       </c>
       <c r="D97" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4510,7 +4514,7 @@
         <v>443</v>
       </c>
       <c r="D98" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4524,7 +4528,7 @@
         <v>444</v>
       </c>
       <c r="D99" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4538,7 +4542,7 @@
         <v>445</v>
       </c>
       <c r="D100" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4552,7 +4556,7 @@
         <v>446</v>
       </c>
       <c r="D101" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4566,7 +4570,7 @@
         <v>447</v>
       </c>
       <c r="D102" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4580,7 +4584,7 @@
         <v>448</v>
       </c>
       <c r="D103" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4594,7 +4598,7 @@
         <v>449</v>
       </c>
       <c r="D104" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4608,7 +4612,7 @@
         <v>450</v>
       </c>
       <c r="D105" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4622,7 +4626,7 @@
         <v>451</v>
       </c>
       <c r="D106" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4636,7 +4640,7 @@
         <v>452</v>
       </c>
       <c r="D107" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4650,7 +4654,7 @@
         <v>453</v>
       </c>
       <c r="D108" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4664,7 +4668,7 @@
         <v>454</v>
       </c>
       <c r="D109" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4678,7 +4682,7 @@
         <v>455</v>
       </c>
       <c r="D110" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4692,7 +4696,7 @@
         <v>456</v>
       </c>
       <c r="D111" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4706,7 +4710,7 @@
         <v>457</v>
       </c>
       <c r="D112" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4720,7 +4724,7 @@
         <v>458</v>
       </c>
       <c r="D113" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4734,7 +4738,7 @@
         <v>459</v>
       </c>
       <c r="D114" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4748,7 +4752,7 @@
         <v>460</v>
       </c>
       <c r="D115" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4762,7 +4766,7 @@
         <v>461</v>
       </c>
       <c r="D116" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4776,7 +4780,7 @@
         <v>462</v>
       </c>
       <c r="D117" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4790,7 +4794,7 @@
         <v>463</v>
       </c>
       <c r="D118" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4804,7 +4808,7 @@
         <v>464</v>
       </c>
       <c r="D119" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4818,7 +4822,7 @@
         <v>465</v>
       </c>
       <c r="D120" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4832,7 +4836,7 @@
         <v>466</v>
       </c>
       <c r="D121" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4846,7 +4850,7 @@
         <v>467</v>
       </c>
       <c r="D122" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4860,7 +4864,7 @@
         <v>468</v>
       </c>
       <c r="D123" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4874,7 +4878,7 @@
         <v>469</v>
       </c>
       <c r="D124" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4888,7 +4892,7 @@
         <v>470</v>
       </c>
       <c r="D125" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4902,7 +4906,7 @@
         <v>471</v>
       </c>
       <c r="D126" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4916,7 +4920,7 @@
         <v>472</v>
       </c>
       <c r="D127" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4930,7 +4934,7 @@
         <v>473</v>
       </c>
       <c r="D128" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4944,7 +4948,7 @@
         <v>474</v>
       </c>
       <c r="D129" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4958,7 +4962,7 @@
         <v>475</v>
       </c>
       <c r="D130" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4972,7 +4976,7 @@
         <v>476</v>
       </c>
       <c r="D131" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4986,7 +4990,7 @@
         <v>477</v>
       </c>
       <c r="D132" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5000,7 +5004,7 @@
         <v>455</v>
       </c>
       <c r="D133" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5014,7 +5018,7 @@
         <v>478</v>
       </c>
       <c r="D134" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5028,7 +5032,7 @@
         <v>479</v>
       </c>
       <c r="D135" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5042,7 +5046,7 @@
         <v>480</v>
       </c>
       <c r="D136" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5056,7 +5060,7 @@
         <v>481</v>
       </c>
       <c r="D137" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5070,7 +5074,7 @@
         <v>482</v>
       </c>
       <c r="D138" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5084,7 +5088,7 @@
         <v>483</v>
       </c>
       <c r="D139" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5098,7 +5102,7 @@
         <v>484</v>
       </c>
       <c r="D140" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5112,7 +5116,7 @@
         <v>485</v>
       </c>
       <c r="D141" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5126,7 +5130,7 @@
         <v>486</v>
       </c>
       <c r="D142" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5140,7 +5144,7 @@
         <v>487</v>
       </c>
       <c r="D143" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5154,7 +5158,7 @@
         <v>488</v>
       </c>
       <c r="D144" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5168,7 +5172,7 @@
         <v>489</v>
       </c>
       <c r="D145" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5182,7 +5186,7 @@
         <v>490</v>
       </c>
       <c r="D146" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5196,7 +5200,7 @@
         <v>491</v>
       </c>
       <c r="D147" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5210,7 +5214,7 @@
         <v>492</v>
       </c>
       <c r="D148" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5224,7 +5228,7 @@
         <v>493</v>
       </c>
       <c r="D149" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5238,7 +5242,7 @@
         <v>494</v>
       </c>
       <c r="D150" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5252,7 +5256,7 @@
         <v>495</v>
       </c>
       <c r="D151" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5266,7 +5270,7 @@
         <v>496</v>
       </c>
       <c r="D152" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5280,7 +5284,7 @@
         <v>497</v>
       </c>
       <c r="D153" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5294,7 +5298,7 @@
         <v>498</v>
       </c>
       <c r="D154" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5308,7 +5312,7 @@
         <v>499</v>
       </c>
       <c r="D155" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5322,7 +5326,7 @@
         <v>500</v>
       </c>
       <c r="D156" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5336,7 +5340,7 @@
         <v>501</v>
       </c>
       <c r="D157" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5350,7 +5354,7 @@
         <v>502</v>
       </c>
       <c r="D158" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5364,7 +5368,7 @@
         <v>503</v>
       </c>
       <c r="D159" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5378,7 +5382,7 @@
         <v>504</v>
       </c>
       <c r="D160" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5392,7 +5396,7 @@
         <v>505</v>
       </c>
       <c r="D161" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5406,7 +5410,7 @@
         <v>506</v>
       </c>
       <c r="D162" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5420,7 +5424,7 @@
         <v>408</v>
       </c>
       <c r="D163" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5434,7 +5438,7 @@
         <v>507</v>
       </c>
       <c r="D164" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5448,7 +5452,7 @@
         <v>508</v>
       </c>
       <c r="D165" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5462,7 +5466,7 @@
         <v>509</v>
       </c>
       <c r="D166" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5476,7 +5480,7 @@
         <v>414</v>
       </c>
       <c r="D167" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5490,7 +5494,7 @@
         <v>510</v>
       </c>
       <c r="D168" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5504,7 +5508,7 @@
         <v>511</v>
       </c>
       <c r="D169" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5518,7 +5522,7 @@
         <v>512</v>
       </c>
       <c r="D170" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5532,7 +5536,7 @@
         <v>513</v>
       </c>
       <c r="D171" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5546,7 +5550,7 @@
         <v>514</v>
       </c>
       <c r="D172" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5560,7 +5564,7 @@
         <v>515</v>
       </c>
       <c r="D173" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5574,7 +5578,7 @@
         <v>516</v>
       </c>
       <c r="D174" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5588,7 +5592,7 @@
         <v>517</v>
       </c>
       <c r="D175" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5602,7 +5606,7 @@
         <v>518</v>
       </c>
       <c r="D176" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5616,7 +5620,7 @@
         <v>519</v>
       </c>
       <c r="D177" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
